--- a/bang_ke/van_loc_phat/example/tool bang ke/tool bang ke A Nam.xlsx
+++ b/bang_ke/van_loc_phat/example/tool bang ke/tool bang ke A Nam.xlsx
@@ -1,31 +1,183 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Van Loc Phat\Bảng Kê Vận Chuyển\New Format 2025\T9\tool bang ke\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E084C83-1E89-462A-9E65-22F1542A1F5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="52">
+  <si>
+    <t>Ngày Xuất</t>
+  </si>
+  <si>
+    <t>Điểm Giao Hàng</t>
+  </si>
+  <si>
+    <t>Trọng Lượng</t>
+  </si>
+  <si>
+    <t>Giá Vận Chuyển</t>
+  </si>
+  <si>
+    <t>26/11/2025</t>
+  </si>
+  <si>
+    <t>27/11/2025</t>
+  </si>
+  <si>
+    <t>28/11/2025</t>
+  </si>
+  <si>
+    <t>29/11/2025</t>
+  </si>
+  <si>
+    <t>01/12/2025</t>
+  </si>
+  <si>
+    <t>02/12/2025</t>
+  </si>
+  <si>
+    <t>03/12/2025</t>
+  </si>
+  <si>
+    <t>04/12/2025</t>
+  </si>
+  <si>
+    <t>05/12/2025</t>
+  </si>
+  <si>
+    <t>06/12/2025</t>
+  </si>
+  <si>
+    <t>08/12/2025</t>
+  </si>
+  <si>
+    <t>09/12/2025</t>
+  </si>
+  <si>
+    <t>10/12/2025</t>
+  </si>
+  <si>
+    <t>11/12/2025</t>
+  </si>
+  <si>
+    <t>12/12/2025</t>
+  </si>
+  <si>
+    <t>13/12/2025</t>
+  </si>
+  <si>
+    <t>15/12/2025</t>
+  </si>
+  <si>
+    <t>16/12/2025</t>
+  </si>
+  <si>
+    <t>17/12/2025</t>
+  </si>
+  <si>
+    <t>18/12/2025</t>
+  </si>
+  <si>
+    <t>19/12/2025</t>
+  </si>
+  <si>
+    <t>20/12/2025</t>
+  </si>
+  <si>
+    <t>22/12/2025</t>
+  </si>
+  <si>
+    <t>23/12/2025</t>
+  </si>
+  <si>
+    <t>24/12/2025</t>
+  </si>
+  <si>
+    <t>25/12/2025</t>
+  </si>
+  <si>
+    <t>THU DUC</t>
+  </si>
+  <si>
+    <t>Q9</t>
+  </si>
+  <si>
+    <t>BINH THANH</t>
+  </si>
+  <si>
+    <t>Q12</t>
+  </si>
+  <si>
+    <t>BINH TAN</t>
+  </si>
+  <si>
+    <t>NHON TRACH</t>
+  </si>
+  <si>
+    <t>Q8</t>
+  </si>
+  <si>
+    <t>BINH CHANH</t>
+  </si>
+  <si>
+    <t>TAN PHU</t>
+  </si>
+  <si>
+    <t>HOC MON</t>
+  </si>
+  <si>
+    <t>CAN GIUOC</t>
+  </si>
+  <si>
+    <t>BIEN HOA</t>
+  </si>
+  <si>
+    <t>TAN BINH</t>
+  </si>
+  <si>
+    <t>TDM</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>BINH THANH - Q12 - BINH TAN</t>
+  </si>
+  <si>
+    <t>BINH CHANH - BINH TAN</t>
+  </si>
+  <si>
+    <t>Q12 - BINH TAN - HOC MON</t>
+  </si>
+  <si>
+    <t>CAN GIUOC - Q9</t>
+  </si>
+  <si>
+    <t>TAN PHU - Q8</t>
+  </si>
+  <si>
+    <t>TAN PHU - Q2</t>
+  </si>
+  <si>
+    <t>Q9 - BIEN HOA</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,14 +221,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -123,7 +267,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -155,27 +299,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -207,24 +333,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -400,284 +508,1069 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1099</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1050000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="1">
+        <v>424</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1150000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="1">
+        <v>963</v>
+      </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1580</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1050000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="1">
+        <v>546</v>
+      </c>
+      <c r="D6" s="1">
+        <v>950000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1020</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1250000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="1">
+        <v>360</v>
+      </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="1">
+        <v>240</v>
+      </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="1">
+        <v>443</v>
+      </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1105</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1550000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1687</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="1">
+        <v>851</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1100000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="1">
+        <v>706</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1150000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="1">
+        <v>532</v>
+      </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1570</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1360000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1387</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1725000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="1">
+        <v>519</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="1">
+        <v>509</v>
+      </c>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
+      <c r="A20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1278</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1100000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="1">
+        <v>307</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="1">
+        <v>269</v>
+      </c>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="1">
+        <v>748</v>
+      </c>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
+      <c r="A24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1068</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1900000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="1">
+        <v>835</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1100000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="1">
+        <v>484</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1950000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="1">
+        <v>391</v>
+      </c>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="1">
+        <v>225</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
+      <c r="B29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="1">
+        <v>732</v>
+      </c>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
+      <c r="A30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="1">
+        <v>795</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1100000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1881</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1150000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1141</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1400000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="1">
+        <v>835</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1250000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="1">
+        <v>2027</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1100000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="1">
+        <v>2292</v>
+      </c>
+      <c r="D35" s="1">
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="1">
+        <v>921</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1100000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1391</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1150000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1386</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1100000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="1">
+        <v>432</v>
+      </c>
+      <c r="D39" s="1">
+        <v>950000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="1">
+        <v>600</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
+      <c r="B41" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" s="1">
+        <v>457</v>
+      </c>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
+      <c r="A42" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" s="1">
+        <v>984</v>
+      </c>
+      <c r="D42" s="1">
+        <v>1150000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43" s="1">
+        <v>442</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1700000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
+      <c r="B44" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" s="1">
+        <v>413</v>
+      </c>
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0</v>
+      </c>
+      <c r="D45" s="1">
+        <v>1000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1099</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1050000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1387</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1150000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1580</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1050000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1">
+        <v>546</v>
+      </c>
+      <c r="D5" s="1">
+        <v>950000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2063</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1250000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1105</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1550000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1687</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="1">
+        <v>851</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1100000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1238</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1150000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1570</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1360000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1387</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1725000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1028</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1278</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1100000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1324</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1068</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1900000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="1">
+        <v>835</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1100000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="1">
+        <v>875</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1950000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="1">
+        <v>957</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="1">
+        <v>795</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1100000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1881</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1150000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1141</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1400000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="1">
+        <v>835</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1250000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2027</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1100000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2292</v>
+      </c>
+      <c r="D25" s="1">
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="1">
+        <v>921</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1100000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1391</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1150000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1386</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1100000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="1">
+        <v>432</v>
+      </c>
+      <c r="D29" s="1">
+        <v>950000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1057</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="1">
+        <v>984</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1150000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="1">
+        <v>855</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1700000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1000000</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bang_ke/van_loc_phat/example/tool bang ke/tool bang ke A Nam.xlsx
+++ b/bang_ke/van_loc_phat/example/tool bang ke/tool bang ke A Nam.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="52">
   <si>
     <t>Ngày Xuất</t>
   </si>
@@ -29,148 +29,148 @@
     <t>Giá Vận Chuyển</t>
   </si>
   <si>
-    <t>26/11/2025</t>
-  </si>
-  <si>
-    <t>27/11/2025</t>
-  </si>
-  <si>
-    <t>28/11/2025</t>
-  </si>
-  <si>
-    <t>29/11/2025</t>
-  </si>
-  <si>
-    <t>01/12/2025</t>
-  </si>
-  <si>
-    <t>02/12/2025</t>
-  </si>
-  <si>
-    <t>03/12/2025</t>
-  </si>
-  <si>
-    <t>04/12/2025</t>
-  </si>
-  <si>
-    <t>05/12/2025</t>
-  </si>
-  <si>
-    <t>06/12/2025</t>
-  </si>
-  <si>
-    <t>08/12/2025</t>
-  </si>
-  <si>
-    <t>09/12/2025</t>
-  </si>
-  <si>
-    <t>10/12/2025</t>
-  </si>
-  <si>
-    <t>11/12/2025</t>
-  </si>
-  <si>
-    <t>12/12/2025</t>
-  </si>
-  <si>
-    <t>13/12/2025</t>
-  </si>
-  <si>
-    <t>15/12/2025</t>
-  </si>
-  <si>
-    <t>16/12/2025</t>
-  </si>
-  <si>
-    <t>17/12/2025</t>
-  </si>
-  <si>
-    <t>18/12/2025</t>
-  </si>
-  <si>
-    <t>19/12/2025</t>
-  </si>
-  <si>
-    <t>20/12/2025</t>
-  </si>
-  <si>
-    <t>22/12/2025</t>
-  </si>
-  <si>
-    <t>23/12/2025</t>
-  </si>
-  <si>
-    <t>24/12/2025</t>
-  </si>
-  <si>
-    <t>25/12/2025</t>
+    <t>26/12/2025</t>
+  </si>
+  <si>
+    <t>27/12/2025</t>
+  </si>
+  <si>
+    <t>29/12/2025</t>
+  </si>
+  <si>
+    <t>30/12/2025</t>
+  </si>
+  <si>
+    <t>31/12/2025</t>
+  </si>
+  <si>
+    <t>03/01/2026</t>
+  </si>
+  <si>
+    <t>05/01/2026</t>
+  </si>
+  <si>
+    <t>06/01/2026</t>
+  </si>
+  <si>
+    <t>07/01/2026</t>
+  </si>
+  <si>
+    <t>08/01/2026</t>
+  </si>
+  <si>
+    <t>09/01/2026</t>
+  </si>
+  <si>
+    <t>10/01/2026</t>
+  </si>
+  <si>
+    <t>12/01/2026</t>
+  </si>
+  <si>
+    <t>13/01/2026</t>
+  </si>
+  <si>
+    <t>14/01/2026</t>
+  </si>
+  <si>
+    <t>15/01/2026</t>
+  </si>
+  <si>
+    <t>16/01/2026</t>
+  </si>
+  <si>
+    <t>17/01/2026</t>
+  </si>
+  <si>
+    <t>19/01/2026</t>
+  </si>
+  <si>
+    <t>20/01/2026</t>
+  </si>
+  <si>
+    <t>21/01/2026</t>
+  </si>
+  <si>
+    <t>22/01/2026</t>
+  </si>
+  <si>
+    <t>23/01/2026</t>
   </si>
   <si>
     <t>THU DUC</t>
   </si>
   <si>
+    <t>BINH TAN</t>
+  </si>
+  <si>
+    <t>BINH CHANH</t>
+  </si>
+  <si>
+    <t>Q12</t>
+  </si>
+  <si>
+    <t>TAN BINH</t>
+  </si>
+  <si>
     <t>Q9</t>
   </si>
   <si>
-    <t>BINH THANH</t>
-  </si>
-  <si>
-    <t>Q12</t>
-  </si>
-  <si>
-    <t>BINH TAN</t>
-  </si>
-  <si>
-    <t>NHON TRACH</t>
+    <t>TAN PHU</t>
+  </si>
+  <si>
+    <t>GO VAP</t>
+  </si>
+  <si>
+    <t>DUC HOA</t>
   </si>
   <si>
     <t>Q8</t>
   </si>
   <si>
-    <t>BINH CHANH</t>
-  </si>
-  <si>
-    <t>TAN PHU</t>
+    <t>Q6</t>
+  </si>
+  <si>
+    <t>CAN GIUOC</t>
+  </si>
+  <si>
+    <t>BEN CAT</t>
+  </si>
+  <si>
+    <t>LONG BINH</t>
+  </si>
+  <si>
+    <t>DI AN</t>
   </si>
   <si>
     <t>HOC MON</t>
   </si>
   <si>
-    <t>CAN GIUOC</t>
-  </si>
-  <si>
-    <t>BIEN HOA</t>
-  </si>
-  <si>
-    <t>TAN BINH</t>
-  </si>
-  <si>
-    <t>TDM</t>
-  </si>
-  <si>
-    <t>Q2</t>
-  </si>
-  <si>
-    <t>BINH THANH - Q12 - BINH TAN</t>
-  </si>
-  <si>
-    <t>BINH CHANH - BINH TAN</t>
-  </si>
-  <si>
-    <t>Q12 - BINH TAN - HOC MON</t>
-  </si>
-  <si>
-    <t>CAN GIUOC - Q9</t>
-  </si>
-  <si>
-    <t>TAN PHU - Q8</t>
-  </si>
-  <si>
-    <t>TAN PHU - Q2</t>
-  </si>
-  <si>
-    <t>Q9 - BIEN HOA</t>
+    <t>BINH TAN - BINH CHANH</t>
+  </si>
+  <si>
+    <t>BINH TAN - TAN PHU</t>
+  </si>
+  <si>
+    <t>GO VAP - BINH TAN</t>
+  </si>
+  <si>
+    <t>Q8 - BINH CHANH</t>
+  </si>
+  <si>
+    <t>TAN BINH - BINH CHANH - TAN PHU</t>
+  </si>
+  <si>
+    <t>THU DUC - GO VAP</t>
+  </si>
+  <si>
+    <t>Q9 - LONG BINH</t>
+  </si>
+  <si>
+    <t>HOC MON - Q12 - TAN PHU</t>
+  </si>
+  <si>
+    <t>HOC MON - BINH CHANH</t>
   </si>
 </sst>
 </file>
@@ -534,13 +534,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1">
-        <v>1099</v>
+        <v>451</v>
       </c>
       <c r="D2" s="1">
-        <v>1050000</v>
+        <v>1100000</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -548,22 +548,22 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C3" s="1">
-        <v>424</v>
+        <v>1193</v>
       </c>
       <c r="D3" s="1">
-        <v>1150000</v>
+        <v>1350000</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C4" s="1">
-        <v>963</v>
+        <v>475</v>
       </c>
       <c r="D4" s="1"/>
     </row>
@@ -575,214 +575,210 @@
         <v>30</v>
       </c>
       <c r="C5" s="1">
-        <v>1580</v>
+        <v>886</v>
       </c>
       <c r="D5" s="1">
-        <v>1050000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" s="1">
-        <v>546</v>
+        <v>1281</v>
       </c>
       <c r="D6" s="1">
-        <v>950000</v>
+        <v>1100000</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C7" s="1">
-        <v>1020</v>
+        <v>928</v>
       </c>
       <c r="D7" s="1">
+        <v>1100000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="1">
+        <v>691</v>
+      </c>
+      <c r="D8" s="1">
         <v>1250000</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="1">
-        <v>360</v>
-      </c>
-      <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1020</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="1">
-        <v>240</v>
-      </c>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="C10" s="1">
-        <v>443</v>
-      </c>
-      <c r="D10" s="1"/>
+        <v>546</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1210000</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C11" s="1">
-        <v>1105</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1550000</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C12" s="1">
-        <v>1687</v>
+        <v>1248</v>
       </c>
       <c r="D12" s="1">
-        <v>1000000</v>
+        <v>1150000</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13" s="1">
-        <v>851</v>
+        <v>1050</v>
       </c>
       <c r="D13" s="1">
-        <v>1100000</v>
+        <v>1400000</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C14" s="1">
-        <v>706</v>
+        <v>403</v>
       </c>
       <c r="D14" s="1">
-        <v>1150000</v>
+        <v>1200000</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C15" s="1">
-        <v>532</v>
+        <v>918</v>
       </c>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C16" s="1">
-        <v>1570</v>
+        <v>725</v>
       </c>
       <c r="D16" s="1">
-        <v>1360000</v>
+        <v>1300000</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C17" s="1">
-        <v>1387</v>
-      </c>
-      <c r="D17" s="1">
-        <v>1725000</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C18" s="1">
-        <v>519</v>
+        <v>391</v>
       </c>
       <c r="D18" s="1">
-        <v>1500000</v>
+        <v>1250000</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C19" s="1">
-        <v>509</v>
+        <v>460</v>
       </c>
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C20" s="1">
-        <v>1278</v>
-      </c>
-      <c r="D20" s="1">
-        <v>1100000</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="D20" s="1"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C21" s="1">
-        <v>307</v>
+        <v>519</v>
       </c>
       <c r="D21" s="1">
-        <v>1200000</v>
+        <v>1050000</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -791,178 +787,174 @@
         <v>34</v>
       </c>
       <c r="C22" s="1">
-        <v>269</v>
+        <v>610</v>
       </c>
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="1"/>
+      <c r="A23" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="B23" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C23" s="1">
-        <v>748</v>
-      </c>
-      <c r="D23" s="1"/>
+        <v>2076</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1150000</v>
+      </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C24" s="1">
-        <v>1068</v>
+        <v>915</v>
       </c>
       <c r="D24" s="1">
-        <v>1900000</v>
+        <v>1210000</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C25" s="1">
-        <v>835</v>
+        <v>1061</v>
       </c>
       <c r="D25" s="1">
-        <v>1100000</v>
+        <v>1900000</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C26" s="1">
-        <v>484</v>
+        <v>1306</v>
       </c>
       <c r="D26" s="1">
-        <v>1950000</v>
+        <v>1250000</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="1"/>
+      <c r="A27" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B27" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C27" s="1">
-        <v>391</v>
-      </c>
-      <c r="D27" s="1"/>
+        <v>1102</v>
+      </c>
+      <c r="D27" s="1">
+        <v>750000</v>
+      </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C28" s="1">
-        <v>225</v>
+        <v>1020</v>
       </c>
       <c r="D28" s="1">
-        <v>1200000</v>
+        <v>1300000</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C29" s="1">
-        <v>732</v>
+        <v>300</v>
       </c>
       <c r="D29" s="1"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C30" s="1">
-        <v>795</v>
-      </c>
-      <c r="D30" s="1">
-        <v>1100000</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="D30" s="1"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C31" s="1">
-        <v>1881</v>
-      </c>
-      <c r="D31" s="1">
-        <v>1150000</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="C32" s="1">
-        <v>1141</v>
+        <v>1358</v>
       </c>
       <c r="D32" s="1">
-        <v>1400000</v>
+        <v>1050000</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C33" s="1">
-        <v>835</v>
+        <v>1351</v>
       </c>
       <c r="D33" s="1">
-        <v>1250000</v>
+        <v>1150000</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C34" s="1">
-        <v>2027</v>
-      </c>
-      <c r="D34" s="1">
-        <v>1100000</v>
-      </c>
+        <v>690</v>
+      </c>
+      <c r="D34" s="1"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C35" s="1">
-        <v>2292</v>
+        <v>550</v>
       </c>
       <c r="D35" s="1">
-        <v>550000</v>
+        <v>1375000</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -970,132 +962,116 @@
         <v>24</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C36" s="1">
-        <v>921</v>
+        <v>561</v>
       </c>
       <c r="D36" s="1">
-        <v>1100000</v>
+        <v>1300000</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="1">
+        <v>17</v>
+      </c>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C37" s="1">
-        <v>1391</v>
-      </c>
-      <c r="D37" s="1">
-        <v>1150000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="C38" s="1">
-        <v>1386</v>
-      </c>
-      <c r="D38" s="1">
-        <v>1100000</v>
-      </c>
+        <v>504</v>
+      </c>
+      <c r="D38" s="1"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C39" s="1">
-        <v>432</v>
-      </c>
-      <c r="D39" s="1">
-        <v>950000</v>
-      </c>
+        <v>600</v>
+      </c>
+      <c r="D39" s="1"/>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C40" s="1">
+        <v>1512</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1150000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1020</v>
+      </c>
+      <c r="D41" s="1">
+        <v>1550000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" s="1">
         <v>600</v>
       </c>
-      <c r="D40" s="1">
-        <v>1200000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C41" s="1">
-        <v>457</v>
-      </c>
-      <c r="D41" s="1"/>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="1" t="s">
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C42" s="1">
-        <v>984</v>
-      </c>
-      <c r="D42" s="1">
-        <v>1150000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="1" t="s">
+      <c r="C43" s="1">
+        <v>414</v>
+      </c>
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44" s="1">
+        <v>126</v>
+      </c>
+      <c r="D44" s="1">
+        <v>1215000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C43" s="1">
-        <v>442</v>
-      </c>
-      <c r="D43" s="1">
-        <v>1700000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C44" s="1">
-        <v>413</v>
-      </c>
-      <c r="D44" s="1"/>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="C45" s="1">
-        <v>0</v>
-      </c>
-      <c r="D45" s="1">
-        <v>1000000</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="D45" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1104,7 +1080,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1129,13 +1105,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1">
-        <v>1099</v>
+        <v>451</v>
       </c>
       <c r="D2" s="1">
-        <v>1050000</v>
+        <v>1100000</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1143,13 +1119,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C3" s="1">
-        <v>1387</v>
+        <v>1668</v>
       </c>
       <c r="D3" s="1">
-        <v>1150000</v>
+        <v>1350000</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1160,80 +1136,80 @@
         <v>30</v>
       </c>
       <c r="C4" s="1">
-        <v>1580</v>
+        <v>886</v>
       </c>
       <c r="D4" s="1">
-        <v>1050000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1">
-        <v>546</v>
+        <v>1281</v>
       </c>
       <c r="D5" s="1">
-        <v>950000</v>
+        <v>1100000</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C6" s="1">
-        <v>2063</v>
+        <v>928</v>
       </c>
       <c r="D6" s="1">
-        <v>1250000</v>
+        <v>1100000</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C7" s="1">
-        <v>1105</v>
+        <v>1711</v>
       </c>
       <c r="D7" s="1">
-        <v>1550000</v>
+        <v>1250000</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C8" s="1">
-        <v>1687</v>
+        <v>1046</v>
       </c>
       <c r="D8" s="1">
-        <v>1000000</v>
+        <v>1210000</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C9" s="1">
-        <v>851</v>
+        <v>1248</v>
       </c>
       <c r="D9" s="1">
-        <v>1100000</v>
+        <v>1150000</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1241,335 +1217,251 @@
         <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C10" s="1">
-        <v>1238</v>
+        <v>1050</v>
       </c>
       <c r="D10" s="1">
-        <v>1150000</v>
+        <v>1400000</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C11" s="1">
-        <v>1570</v>
+        <v>1321</v>
       </c>
       <c r="D11" s="1">
-        <v>1360000</v>
+        <v>1200000</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C12" s="1">
-        <v>1387</v>
+        <v>1090</v>
       </c>
       <c r="D12" s="1">
-        <v>1725000</v>
+        <v>1300000</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C13" s="1">
-        <v>1028</v>
+        <v>1151</v>
       </c>
       <c r="D13" s="1">
-        <v>1500000</v>
+        <v>1250000</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C14" s="1">
-        <v>1278</v>
+        <v>1129</v>
       </c>
       <c r="D14" s="1">
-        <v>1100000</v>
+        <v>1050000</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C15" s="1">
-        <v>1324</v>
+        <v>2076</v>
       </c>
       <c r="D15" s="1">
-        <v>1200000</v>
+        <v>1150000</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C16" s="1">
-        <v>1068</v>
+        <v>915</v>
       </c>
       <c r="D16" s="1">
-        <v>1900000</v>
+        <v>1210000</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C17" s="1">
-        <v>835</v>
+        <v>1061</v>
       </c>
       <c r="D17" s="1">
-        <v>1100000</v>
+        <v>1900000</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C18" s="1">
-        <v>875</v>
+        <v>1306</v>
       </c>
       <c r="D18" s="1">
-        <v>1950000</v>
+        <v>1250000</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C19" s="1">
-        <v>957</v>
+        <v>1102</v>
       </c>
       <c r="D19" s="1">
-        <v>1200000</v>
+        <v>750000</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C20" s="1">
-        <v>795</v>
+        <v>1891</v>
       </c>
       <c r="D20" s="1">
-        <v>1100000</v>
+        <v>1300000</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C21" s="1">
-        <v>1881</v>
+        <v>1358</v>
       </c>
       <c r="D21" s="1">
-        <v>1150000</v>
+        <v>1050000</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C22" s="1">
-        <v>1141</v>
+        <v>2041</v>
       </c>
       <c r="D22" s="1">
-        <v>1400000</v>
+        <v>1150000</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C23" s="1">
-        <v>835</v>
+        <v>550</v>
       </c>
       <c r="D23" s="1">
-        <v>1250000</v>
+        <v>1375000</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="C24" s="1">
-        <v>2027</v>
+        <v>1682</v>
       </c>
       <c r="D24" s="1">
-        <v>1100000</v>
+        <v>1300000</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C25" s="1">
-        <v>2292</v>
+        <v>1512</v>
       </c>
       <c r="D25" s="1">
-        <v>550000</v>
+        <v>1150000</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C26" s="1">
-        <v>921</v>
+        <v>2034</v>
       </c>
       <c r="D26" s="1">
-        <v>1100000</v>
+        <v>1550000</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C27" s="1">
-        <v>1391</v>
+        <v>456</v>
       </c>
       <c r="D27" s="1">
-        <v>1150000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="1">
-        <v>1386</v>
-      </c>
-      <c r="D28" s="1">
-        <v>1100000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="1">
-        <v>432</v>
-      </c>
-      <c r="D29" s="1">
-        <v>950000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" s="1">
-        <v>1057</v>
-      </c>
-      <c r="D30" s="1">
-        <v>1200000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="1">
-        <v>984</v>
-      </c>
-      <c r="D31" s="1">
-        <v>1150000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C32" s="1">
-        <v>855</v>
-      </c>
-      <c r="D32" s="1">
-        <v>1700000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33" s="1">
-        <v>0</v>
-      </c>
-      <c r="D33" s="1">
-        <v>1000000</v>
+        <v>1215000</v>
       </c>
     </row>
   </sheetData>
